--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VenuM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA0D11E-C145-44CB-AE64-951630C40D91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90583D62-0F2A-435B-B869-6410103FF3F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="8235" yWindow="150" windowWidth="16545" windowHeight="15570" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>srivenfamily@yahoo.com</t>
   </si>
   <si>
-    <t>project123</t>
+    <t>project1234</t>
   </si>
 </sst>
 </file>
